--- a/trunk/Documentos do Projeto/Cliente BYSOFT MG.xlsx
+++ b/trunk/Documentos do Projeto/Cliente BYSOFT MG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="75">
   <si>
     <t>Status Crédito</t>
   </si>
@@ -39,12 +39,6 @@
     <t>DDI</t>
   </si>
   <si>
-    <t>Telefone</t>
-  </si>
-  <si>
-    <t>Cidade</t>
-  </si>
-  <si>
     <t>UF</t>
   </si>
   <si>
@@ -58,12 +52,6 @@
   </si>
   <si>
     <t>Data inicio Treinamento</t>
-  </si>
-  <si>
-    <t>Data Estimada Termino</t>
-  </si>
-  <si>
-    <t>Data Center Bysoft</t>
   </si>
   <si>
     <t>A.L.B - AUTOMOTIVE LOGISTICA LTDA</t>
@@ -316,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -384,26 +372,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -411,17 +387,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -452,13 +422,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3615,10 +3578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.28515625" defaultRowHeight="15"/>
@@ -3628,42 +3591,30 @@
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
+    <row r="1" spans="1:12">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3688,1029 +3639,859 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="11"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="D3" s="3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="F3" s="3">
+        <v>4035896000103</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3232494444</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="14"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="12"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5">
+        <v>7433647000156</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3121255996</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4">
-        <v>4035896000103</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="4">
-        <v>3232494444</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="4" t="s">
+    </row>
+    <row r="5" spans="1:12" ht="24">
+      <c r="A5" s="11"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3">
+        <v>73</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3">
+        <v>507170000167</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="15"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="7">
+    <row r="6" spans="1:12">
+      <c r="A6" s="12"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5">
+        <v>173</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="5">
+        <v>26386235000157</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3130294411</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="11"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2521</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5043824000162</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3134921264</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="12"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="7">
-        <v>7433647000156</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="7">
-        <v>3121255996</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="D8" s="5">
+        <v>2525</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="5">
+        <v>8964846000153</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3134432495</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
+      <c r="I8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" ht="24">
-      <c r="A5" s="14"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="4">
+    <row r="9" spans="1:12">
+      <c r="A9" s="11"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3">
+        <v>347</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6024238000133</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3133192900</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="12"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2976</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="5">
+        <v>14545251000166</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3125314193</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="13"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="7">
+        <v>516</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2601455000198</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="12"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2905</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="5">
+        <v>14714294000128</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" ht="24">
+      <c r="A13" s="11"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3">
+        <v>601</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="3">
+        <v>71084230000124</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3121264740</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="12"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="5">
+        <v>725</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="5">
+        <v>16588048000100</v>
+      </c>
+      <c r="G14" s="5">
+        <v>3132263304</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="24">
+      <c r="A15" s="11"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="3">
+        <v>729</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="3">
+        <v>8209452000190</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3132345751</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="24">
+      <c r="A16" s="12"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="5">
+        <v>732</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="5">
+        <v>6137044000144</v>
+      </c>
+      <c r="G16" s="5">
+        <v>3145012913</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="11"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2859</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="3">
+        <v>17466772000116</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3132211312</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="12"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="5">
+        <v>874</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="5">
+        <v>7984415000196</v>
+      </c>
+      <c r="G18" s="5">
+        <v>3532193400</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="24">
+      <c r="A19" s="11"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1096</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="3">
+        <v>25385444000113</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3132717001</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="12"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1111</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="5">
+        <v>8730051000180</v>
+      </c>
+      <c r="G20" s="5">
+        <v>3133440176</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="11"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1116</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4544752000174</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3131162000</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="12"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1146</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="5">
+        <v>22503635000144</v>
+      </c>
+      <c r="G22" s="5">
+        <v>3134433028</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="11"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1154</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="3">
+        <v>6059373000114</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="24">
+      <c r="A24" s="12"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1182</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1302664000178</v>
+      </c>
+      <c r="G24" s="5">
+        <v>3521054530</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="11"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1202</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="3">
+        <v>22141204000185</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3132533000</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="12"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1208</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="5">
+        <v>2117774000122</v>
+      </c>
+      <c r="G26" s="5">
+        <v>3132931467</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="16">
+        <v>2544</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="4">
-        <v>507170000167</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="4" t="s">
+      <c r="F27" s="16">
+        <v>7566161000196</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="15"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="7">
-        <v>173</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7">
-        <v>26386235000157</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="7">
-        <v>3130294411</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="14"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2521</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="4">
-        <v>5043824000162</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="4">
-        <v>3134921264</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="15"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2525</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="7">
-        <v>8964846000153</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="7">
-        <v>3134432495</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="14"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="4">
-        <v>347</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="4">
-        <v>6024238000133</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="4">
-        <v>3133192900</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="15"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2976</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="7">
-        <v>14545251000166</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="7">
-        <v>3125314193</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="16"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="10">
-        <v>516</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="10">
-        <v>2601455000198</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="10" t="s">
+      <c r="I27" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="15"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2905</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="7">
-        <v>14714294000128</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" ht="24">
-      <c r="A13" s="14"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="4">
-        <v>601</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="4">
-        <v>71084230000124</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="4">
-        <v>3121264740</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="15"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="7">
-        <v>725</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="7">
-        <v>16588048000100</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="7">
-        <v>3132263304</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-    </row>
-    <row r="15" spans="1:18" ht="24">
-      <c r="A15" s="14"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="4">
-        <v>729</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="4">
-        <v>8209452000190</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="4">
-        <v>3132345751</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" ht="24">
-      <c r="A16" s="15"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="7">
-        <v>732</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="7">
-        <v>6137044000144</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="7">
-        <v>3145012913</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="14"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2859</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="4">
-        <v>17466772000116</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="4">
-        <v>3132211312</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="15"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="7">
-        <v>874</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="7">
-        <v>7984415000196</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="7">
-        <v>3532193400</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-    </row>
-    <row r="19" spans="1:18" ht="24">
-      <c r="A19" s="14"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1096</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="4">
-        <v>25385444000113</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="4">
-        <v>3132717001</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="15"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1111</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="7">
-        <v>8730051000180</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="7">
-        <v>3133440176</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="14"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1116</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="4">
-        <v>4544752000174</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="4">
-        <v>3131162000</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="15"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1146</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="7">
-        <v>22503635000144</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="7">
-        <v>3134433028</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="14"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1154</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="4">
-        <v>6059373000114</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-    </row>
-    <row r="24" spans="1:18" ht="24">
-      <c r="A24" s="15"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1182</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="7">
-        <v>1302664000178</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="7">
-        <v>3521054530</v>
-      </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="14"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1202</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="4">
-        <v>22141204000185</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="4">
-        <v>3132533000</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="15"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1208</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="7">
-        <v>2117774000122</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="7">
-        <v>3132931467</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="19">
-        <v>2544</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="19">
-        <v>7566161000196</v>
-      </c>
-      <c r="G27" s="20">
-        <v>40589</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N27" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="O27" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="P27" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/trunk/Documentos do Projeto/Cliente BYSOFT MG.xlsx
+++ b/trunk/Documentos do Projeto/Cliente BYSOFT MG.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$2:$L$27</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -3580,14 +3583,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -3719,7 +3723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="24">
+    <row r="5" spans="1:12">
       <c r="A5" s="11"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
@@ -3985,7 +3989,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" ht="24">
+    <row r="13" spans="1:12">
       <c r="A13" s="11"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3" t="s">
@@ -4053,7 +4057,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="24">
+    <row r="15" spans="1:12">
       <c r="A15" s="11"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
@@ -4087,7 +4091,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="24">
+    <row r="16" spans="1:12">
       <c r="A16" s="12"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5" t="s">
@@ -4187,7 +4191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="24">
+    <row r="19" spans="1:12">
       <c r="A19" s="11"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
@@ -4357,7 +4361,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="24">
+    <row r="24" spans="1:12">
       <c r="A24" s="12"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
@@ -4494,6 +4498,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:L27"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
